--- a/Chapter5_Supplement/Table_A4.1.xlsx
+++ b/Chapter5_Supplement/Table_A4.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4227,14 +4227,24 @@
     <t>KX252841</t>
   </si>
   <si>
-    <t>Table A4.1.The list of 230 taxa we used within our study. Associated GenBank accession numbers and herbarium voucher codes are provided, when known (based on information provided to GenBank).</t>
+    <r>
+      <t>Table A4.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeueLT Pro 55 Roman"/>
+      </rPr>
+      <t>The list of 230 taxa we used within our study. Associated GenBank accession numbers and herbarium voucher codes are provided, when known (based on information provided to GenBank).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4276,6 +4286,11 @@
       <sz val="12"/>
       <name val="HelveticaNeueLT Pro 55 Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeueLT Pro 55 Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4808,41 +4823,41 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="2" customWidth="1"/>
     <col min="14" max="26" width="10.5" style="2" customWidth="1"/>
     <col min="27" max="16384" width="13.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4886,7 +4901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +4963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -5006,7 +5021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5067,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -5167,7 +5182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -5197,7 +5212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5230,7 +5245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -5265,7 +5280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -5295,7 +5310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -5327,7 +5342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16">
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
@@ -5355,7 +5370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16">
       <c r="A21" s="3" t="s">
         <v>105</v>
       </c>
@@ -5450,7 +5465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -5485,7 +5500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16">
       <c r="A23" s="3" t="s">
         <v>117</v>
       </c>
@@ -5517,7 +5532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -5547,7 +5562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16">
       <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
@@ -5579,7 +5594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16">
       <c r="A26" s="3" t="s">
         <v>133</v>
       </c>
@@ -5611,7 +5626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16">
       <c r="A27" s="3" t="s">
         <v>137</v>
       </c>
@@ -5646,7 +5661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="3" t="s">
         <v>144</v>
       </c>
@@ -5681,7 +5696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="3" t="s">
         <v>151</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16">
       <c r="A30" s="3" t="s">
         <v>158</v>
       </c>
@@ -5749,7 +5764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16">
       <c r="A31" s="3" t="s">
         <v>164</v>
       </c>
@@ -5784,7 +5799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -5819,7 +5834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16">
       <c r="A33" s="3" t="s">
         <v>180</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="16">
       <c r="A34" s="3" t="s">
         <v>184</v>
       </c>
@@ -5880,7 +5895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16">
       <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16">
       <c r="A36" s="3" t="s">
         <v>194</v>
       </c>
@@ -5936,7 +5951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="16">
       <c r="A37" s="3" t="s">
         <v>199</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="16">
       <c r="A38" s="3" t="s">
         <v>203</v>
       </c>
@@ -5994,7 +6009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="16">
       <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
@@ -6022,7 +6037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="16">
       <c r="A40" s="3" t="s">
         <v>213</v>
       </c>
@@ -6050,7 +6065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="16">
       <c r="A41" s="3" t="s">
         <v>217</v>
       </c>
@@ -6078,7 +6093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="16">
       <c r="A42" s="3" t="s">
         <v>222</v>
       </c>
@@ -6108,7 +6123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="16">
       <c r="A43" s="3" t="s">
         <v>228</v>
       </c>
@@ -6136,7 +6151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="16">
       <c r="A44" s="3" t="s">
         <v>232</v>
       </c>
@@ -6164,7 +6179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="16">
       <c r="A45" s="3" t="s">
         <v>236</v>
       </c>
@@ -6194,7 +6209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="16">
       <c r="A46" s="3" t="s">
         <v>242</v>
       </c>
@@ -6222,7 +6237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="16">
       <c r="A47" s="3" t="s">
         <v>247</v>
       </c>
@@ -6253,7 +6268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="16">
       <c r="A48" s="3" t="s">
         <v>252</v>
       </c>
@@ -6281,7 +6296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6309,7 +6324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="16">
       <c r="A50" s="3" t="s">
         <v>261</v>
       </c>
@@ -6337,7 +6352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="16">
       <c r="A51" s="3" t="s">
         <v>265</v>
       </c>
@@ -6365,7 +6380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="16">
       <c r="A52" s="3" t="s">
         <v>270</v>
       </c>
@@ -6393,7 +6408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="16">
       <c r="A53" s="3" t="s">
         <v>275</v>
       </c>
@@ -6421,7 +6436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="16">
       <c r="A54" s="3" t="s">
         <v>280</v>
       </c>
@@ -6449,7 +6464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="16">
       <c r="A55" s="3" t="s">
         <v>284</v>
       </c>
@@ -6477,7 +6492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="16">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
@@ -6505,7 +6520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="16">
       <c r="A57" s="3" t="s">
         <v>293</v>
       </c>
@@ -6533,7 +6548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="16">
       <c r="A58" s="3" t="s">
         <v>297</v>
       </c>
@@ -6561,7 +6576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="16">
       <c r="A59" s="3" t="s">
         <v>301</v>
       </c>
@@ -6589,7 +6604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="16">
       <c r="A60" s="3" t="s">
         <v>305</v>
       </c>
@@ -6617,7 +6632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="16">
       <c r="A61" s="3" t="s">
         <v>310</v>
       </c>
@@ -6645,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="16">
       <c r="A62" s="3" t="s">
         <v>315</v>
       </c>
@@ -6673,7 +6688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="16">
       <c r="A63" s="3" t="s">
         <v>319</v>
       </c>
@@ -6701,7 +6716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="16">
       <c r="A64" s="3" t="s">
         <v>323</v>
       </c>
@@ -6729,7 +6744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="16">
       <c r="A65" s="3" t="s">
         <v>328</v>
       </c>
@@ -6757,7 +6772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="16">
       <c r="A66" s="3" t="s">
         <v>333</v>
       </c>
@@ -6785,7 +6800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="16">
       <c r="A67" s="3" t="s">
         <v>338</v>
       </c>
@@ -6813,7 +6828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="16">
       <c r="A68" s="3" t="s">
         <v>343</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="16">
       <c r="A69" s="3" t="s">
         <v>347</v>
       </c>
@@ -6874,7 +6889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="16">
       <c r="A70" s="3" t="s">
         <v>352</v>
       </c>
@@ -6910,7 +6925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16">
       <c r="A71" s="3" t="s">
         <v>359</v>
       </c>
@@ -6946,7 +6961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="16">
       <c r="A72" s="3" t="s">
         <v>366</v>
       </c>
@@ -6982,7 +6997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="16">
       <c r="A73" s="3" t="s">
         <v>373</v>
       </c>
@@ -7013,7 +7028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="16">
       <c r="A74" s="3" t="s">
         <v>378</v>
       </c>
@@ -7049,7 +7064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16">
       <c r="A75" s="3" t="s">
         <v>385</v>
       </c>
@@ -7082,7 +7097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="16">
       <c r="A76" s="3" t="s">
         <v>390</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="16">
       <c r="A77" s="3" t="s">
         <v>396</v>
       </c>
@@ -7148,7 +7163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="16">
       <c r="A78" s="3" t="s">
         <v>402</v>
       </c>
@@ -7183,7 +7198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="16">
       <c r="A79" s="3" t="s">
         <v>408</v>
       </c>
@@ -7219,7 +7234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="16">
       <c r="A80" s="3" t="s">
         <v>415</v>
       </c>
@@ -7255,7 +7270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="16">
       <c r="A81" s="3" t="s">
         <v>422</v>
       </c>
@@ -7291,7 +7306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="16">
       <c r="A82" s="3" t="s">
         <v>430</v>
       </c>
@@ -7327,7 +7342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="16">
       <c r="A83" s="3" t="s">
         <v>437</v>
       </c>
@@ -7360,7 +7375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="16">
       <c r="A84" s="3" t="s">
         <v>443</v>
       </c>
@@ -7399,7 +7414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="16">
       <c r="A85" s="3" t="s">
         <v>453</v>
       </c>
@@ -7427,7 +7442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="16">
       <c r="A86" s="3" t="s">
         <v>457</v>
       </c>
@@ -7455,7 +7470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="16">
       <c r="A87" s="3" t="s">
         <v>461</v>
       </c>
@@ -7496,7 +7511,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="16">
       <c r="A88" s="3" t="s">
         <v>465</v>
       </c>
@@ -7524,7 +7539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="16">
       <c r="A89" s="3" t="s">
         <v>471</v>
       </c>
@@ -7552,7 +7567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="16">
       <c r="A90" s="3" t="s">
         <v>471</v>
       </c>
@@ -7593,7 +7608,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="16">
       <c r="A91" s="3" t="s">
         <v>478</v>
       </c>
@@ -7624,7 +7639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="16">
       <c r="A92" s="3" t="s">
         <v>485</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="16">
       <c r="A93" s="3" t="s">
         <v>491</v>
       </c>
@@ -7687,7 +7702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="16">
       <c r="A94" s="3" t="s">
         <v>500</v>
       </c>
@@ -7731,7 +7746,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="16">
       <c r="A95" s="3" t="s">
         <v>500</v>
       </c>
@@ -7775,7 +7790,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="16">
       <c r="A96" s="3" t="s">
         <v>505</v>
       </c>
@@ -7803,7 +7818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="16">
       <c r="A97" s="3" t="s">
         <v>511</v>
       </c>
@@ -7837,7 +7852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="16">
       <c r="A98" s="3" t="s">
         <v>511</v>
       </c>
@@ -7871,7 +7886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="16">
       <c r="A99" s="3" t="s">
         <v>511</v>
       </c>
@@ -7915,7 +7930,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="16">
       <c r="A100" s="3" t="s">
         <v>511</v>
       </c>
@@ -7959,7 +7974,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="16">
       <c r="A101" s="3" t="s">
         <v>527</v>
       </c>
@@ -8000,7 +8015,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="16">
       <c r="A102" s="3" t="s">
         <v>529</v>
       </c>
@@ -8031,7 +8046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="16">
       <c r="A103" s="3" t="s">
         <v>534</v>
       </c>
@@ -8062,7 +8077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="16">
       <c r="A104" s="3" t="s">
         <v>541</v>
       </c>
@@ -8090,7 +8105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="16">
       <c r="A105" s="3" t="s">
         <v>547</v>
       </c>
@@ -8118,7 +8133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="16">
       <c r="A106" s="3" t="s">
         <v>553</v>
       </c>
@@ -8159,7 +8174,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="16">
       <c r="A107" s="3" t="s">
         <v>555</v>
       </c>
@@ -8190,7 +8205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="16">
       <c r="A108" s="3" t="s">
         <v>560</v>
       </c>
@@ -8221,7 +8236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="16">
       <c r="A109" s="3" t="s">
         <v>567</v>
       </c>
@@ -8256,7 +8271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="16">
       <c r="A110" s="3" t="s">
         <v>575</v>
       </c>
@@ -8284,7 +8299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="16">
       <c r="A111" s="3" t="s">
         <v>581</v>
       </c>
@@ -8316,7 +8331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="16">
       <c r="A112" s="3" t="s">
         <v>586</v>
       </c>
@@ -8350,7 +8365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="16">
       <c r="A113" s="3" t="s">
         <v>586</v>
       </c>
@@ -8384,7 +8399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="16">
       <c r="A114" s="3" t="s">
         <v>586</v>
       </c>
@@ -8418,7 +8433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="16">
       <c r="A115" s="3" t="s">
         <v>586</v>
       </c>
@@ -8462,7 +8477,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="16">
       <c r="A116" s="3" t="s">
         <v>603</v>
       </c>
@@ -8490,7 +8505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="16">
       <c r="A117" s="3" t="s">
         <v>609</v>
       </c>
@@ -8521,7 +8536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="16">
       <c r="A118" s="3" t="s">
         <v>614</v>
       </c>
@@ -8552,7 +8567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="16">
       <c r="A119" s="3" t="s">
         <v>614</v>
       </c>
@@ -8593,7 +8608,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="16">
       <c r="A120" s="3" t="s">
         <v>620</v>
       </c>
@@ -8621,7 +8636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="16">
       <c r="A121" s="3" t="s">
         <v>626</v>
       </c>
@@ -8651,7 +8666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="16">
       <c r="A122" s="3" t="s">
         <v>632</v>
       </c>
@@ -8685,7 +8700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="16">
       <c r="A123" s="3" t="s">
         <v>632</v>
       </c>
@@ -8729,7 +8744,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="16">
       <c r="A124" s="3" t="s">
         <v>632</v>
       </c>
@@ -8773,7 +8788,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="16">
       <c r="A125" s="3" t="s">
         <v>642</v>
       </c>
@@ -8808,7 +8823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="16">
       <c r="A126" s="3" t="s">
         <v>651</v>
       </c>
@@ -8841,7 +8856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="16">
       <c r="A127" s="3" t="s">
         <v>659</v>
       </c>
@@ -8882,7 +8897,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="16">
       <c r="A128" s="3" t="s">
         <v>662</v>
       </c>
@@ -8910,7 +8925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="16">
       <c r="A129" s="3" t="s">
         <v>666</v>
       </c>
@@ -8943,7 +8958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="16">
       <c r="A130" s="3" t="s">
         <v>673</v>
       </c>
@@ -8971,7 +8986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="16">
       <c r="A131" s="3" t="s">
         <v>679</v>
       </c>
@@ -9004,7 +9019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="16">
       <c r="A132" s="3" t="s">
         <v>686</v>
       </c>
@@ -9032,7 +9047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="16">
       <c r="A133" s="3" t="s">
         <v>686</v>
       </c>
@@ -9073,7 +9088,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" ht="16">
       <c r="A134" s="3" t="s">
         <v>691</v>
       </c>
@@ -9101,7 +9116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" ht="16">
       <c r="A135" s="3" t="s">
         <v>697</v>
       </c>
@@ -9136,7 +9151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="16">
       <c r="A136" s="3" t="s">
         <v>706</v>
       </c>
@@ -9177,7 +9192,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" ht="16">
       <c r="A137" s="3" t="s">
         <v>708</v>
       </c>
@@ -9218,7 +9233,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="16">
       <c r="A138" s="3" t="s">
         <v>710</v>
       </c>
@@ -9252,7 +9267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" ht="16">
       <c r="A139" s="3" t="s">
         <v>710</v>
       </c>
@@ -9286,7 +9301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="16">
       <c r="A140" s="3" t="s">
         <v>710</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" ht="16">
       <c r="A141" s="3" t="s">
         <v>727</v>
       </c>
@@ -9345,7 +9360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="16">
       <c r="A142" s="3" t="s">
         <v>733</v>
       </c>
@@ -9379,7 +9394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" ht="16">
       <c r="A143" s="3" t="s">
         <v>739</v>
       </c>
@@ -9410,7 +9425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" ht="16">
       <c r="A144" s="3" t="s">
         <v>739</v>
       </c>
@@ -9441,7 +9456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" ht="16">
       <c r="A145" s="3" t="s">
         <v>752</v>
       </c>
@@ -9472,7 +9487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="16">
       <c r="A146" s="3" t="s">
         <v>757</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="16">
       <c r="A147" s="3" t="s">
         <v>757</v>
       </c>
@@ -9560,7 +9575,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="16">
       <c r="A148" s="3" t="s">
         <v>762</v>
       </c>
@@ -9594,7 +9609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="16">
       <c r="A149" s="3" t="s">
         <v>762</v>
       </c>
@@ -9638,7 +9653,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="16">
       <c r="A150" s="3" t="s">
         <v>762</v>
       </c>
@@ -9682,7 +9697,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" ht="16">
       <c r="A151" s="3" t="s">
         <v>762</v>
       </c>
@@ -9726,7 +9741,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" ht="16">
       <c r="A152" s="3" t="s">
         <v>774</v>
       </c>
@@ -9757,7 +9772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="16">
       <c r="A153" s="3" t="s">
         <v>774</v>
       </c>
@@ -9788,7 +9803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="16">
       <c r="A154" s="3" t="s">
         <v>785</v>
       </c>
@@ -9816,7 +9831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="16">
       <c r="A155" s="3" t="s">
         <v>785</v>
       </c>
@@ -9857,7 +9872,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" ht="16">
       <c r="A156" s="3" t="s">
         <v>790</v>
       </c>
@@ -9898,7 +9913,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" ht="16">
       <c r="A157" s="3" t="s">
         <v>792</v>
       </c>
@@ -9929,7 +9944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" ht="16">
       <c r="A158" s="3" t="s">
         <v>797</v>
       </c>
@@ -9960,7 +9975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="16">
       <c r="A159" s="3" t="s">
         <v>797</v>
       </c>
@@ -10001,7 +10016,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" ht="16">
       <c r="A160" s="3" t="s">
         <v>805</v>
       </c>
@@ -10035,7 +10050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" ht="16">
       <c r="A161" s="3" t="s">
         <v>805</v>
       </c>
@@ -10079,7 +10094,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="16">
       <c r="A162" s="3" t="s">
         <v>813</v>
       </c>
@@ -10110,7 +10125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="16">
       <c r="A163" s="3" t="s">
         <v>813</v>
       </c>
@@ -10151,7 +10166,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="16">
       <c r="A164" s="3" t="s">
         <v>819</v>
       </c>
@@ -10179,7 +10194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" ht="16">
       <c r="A165" s="3" t="s">
         <v>825</v>
       </c>
@@ -10210,7 +10225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="16">
       <c r="A166" s="3" t="s">
         <v>830</v>
       </c>
@@ -10238,7 +10253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" ht="16">
       <c r="A167" s="3" t="s">
         <v>830</v>
       </c>
@@ -10279,7 +10294,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="16">
       <c r="A168" s="3" t="s">
         <v>837</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="16">
       <c r="A169" s="3" t="s">
         <v>840</v>
       </c>
@@ -10367,7 +10382,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="16">
       <c r="A170" s="3" t="s">
         <v>840</v>
       </c>
@@ -10411,7 +10426,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="16">
       <c r="A171" s="3" t="s">
         <v>845</v>
       </c>
@@ -10452,7 +10467,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="16">
       <c r="A172" s="3" t="s">
         <v>847</v>
       </c>
@@ -10483,7 +10498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="16">
       <c r="A173" s="3" t="s">
         <v>847</v>
       </c>
@@ -10524,7 +10539,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="16">
       <c r="A174" s="3" t="s">
         <v>853</v>
       </c>
@@ -10559,7 +10574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="16">
       <c r="A175" s="3" t="s">
         <v>861</v>
       </c>
@@ -10587,7 +10602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" ht="16">
       <c r="A176" s="3" t="s">
         <v>861</v>
       </c>
@@ -10628,7 +10643,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="16">
       <c r="A177" s="3" t="s">
         <v>868</v>
       </c>
@@ -10656,7 +10671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" ht="16">
       <c r="A178" s="3" t="s">
         <v>873</v>
       </c>
@@ -10695,7 +10710,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" ht="16">
       <c r="A179" s="3" t="s">
         <v>875</v>
       </c>
@@ -10723,7 +10738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" ht="16">
       <c r="A180" s="3" t="s">
         <v>881</v>
       </c>
@@ -10767,7 +10782,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" ht="16">
       <c r="A181" s="3" t="s">
         <v>881</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" ht="16">
       <c r="A182" s="3" t="s">
         <v>886</v>
       </c>
@@ -10842,7 +10857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" ht="16">
       <c r="A183" s="3" t="s">
         <v>891</v>
       </c>
@@ -10872,7 +10887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" ht="16">
       <c r="A184" s="3" t="s">
         <v>895</v>
       </c>
@@ -10907,7 +10922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="16">
       <c r="A185" s="3" t="s">
         <v>903</v>
       </c>
@@ -10935,7 +10950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" ht="16">
       <c r="A186" s="3" t="s">
         <v>907</v>
       </c>
@@ -10966,7 +10981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" ht="16">
       <c r="A187" s="3" t="s">
         <v>912</v>
       </c>
@@ -11010,7 +11025,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" ht="16">
       <c r="A188" s="3" t="s">
         <v>915</v>
       </c>
@@ -11041,7 +11056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" ht="16">
       <c r="A189" s="3" t="s">
         <v>921</v>
       </c>
@@ -11085,7 +11100,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" ht="16">
       <c r="A190" s="3" t="s">
         <v>924</v>
       </c>
@@ -11126,7 +11141,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" ht="16">
       <c r="A191" s="3" t="s">
         <v>927</v>
       </c>
@@ -11154,7 +11169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" ht="16">
       <c r="A192" s="3" t="s">
         <v>932</v>
       </c>
@@ -11184,7 +11199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" ht="16">
       <c r="A193" s="3" t="s">
         <v>936</v>
       </c>
@@ -11212,7 +11227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" ht="16">
       <c r="A194" s="3" t="s">
         <v>942</v>
       </c>
@@ -11246,7 +11261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" ht="16">
       <c r="A195" s="3" t="s">
         <v>942</v>
       </c>
@@ -11280,7 +11295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" ht="16">
       <c r="A196" s="3" t="s">
         <v>942</v>
       </c>
@@ -11324,7 +11339,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" ht="16">
       <c r="A197" s="3" t="s">
         <v>942</v>
       </c>
@@ -11368,7 +11383,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" ht="16">
       <c r="A198" s="3" t="s">
         <v>957</v>
       </c>
@@ -11409,7 +11424,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" ht="16">
       <c r="A199" s="3" t="s">
         <v>959</v>
       </c>
@@ -11437,7 +11452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" ht="16">
       <c r="A200" s="3" t="s">
         <v>959</v>
       </c>
@@ -11478,7 +11493,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" ht="16">
       <c r="A201" s="3" t="s">
         <v>964</v>
       </c>
@@ -11506,7 +11521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" ht="16">
       <c r="A202" s="3" t="s">
         <v>970</v>
       </c>
@@ -11537,7 +11552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" ht="16">
       <c r="A203" s="3" t="s">
         <v>977</v>
       </c>
@@ -11565,7 +11580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" ht="16">
       <c r="A204" s="3" t="s">
         <v>983</v>
       </c>
@@ -11593,7 +11608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" ht="16">
       <c r="A205" s="3" t="s">
         <v>988</v>
       </c>
@@ -11621,7 +11636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" ht="16">
       <c r="A206" s="3" t="s">
         <v>993</v>
       </c>
@@ -11649,7 +11664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="16">
       <c r="A207" s="3" t="s">
         <v>999</v>
       </c>
@@ -11690,7 +11705,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" ht="16">
       <c r="A208" s="3" t="s">
         <v>1001</v>
       </c>
@@ -11734,7 +11749,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" ht="16">
       <c r="A209" s="3" t="s">
         <v>1004</v>
       </c>
@@ -11765,7 +11780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" ht="16">
       <c r="A210" s="3" t="s">
         <v>1004</v>
       </c>
@@ -11806,7 +11821,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" ht="16">
       <c r="A211" s="3" t="s">
         <v>1010</v>
       </c>
@@ -11841,7 +11856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" ht="16">
       <c r="A212" s="3" t="s">
         <v>1010</v>
       </c>
@@ -11882,7 +11897,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" ht="16">
       <c r="A213" s="3" t="s">
         <v>1019</v>
       </c>
@@ -11913,7 +11928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" ht="16">
       <c r="A214" s="3" t="s">
         <v>1024</v>
       </c>
@@ -11941,7 +11956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" ht="16">
       <c r="A215" s="3" t="s">
         <v>1030</v>
       </c>
@@ -11985,7 +12000,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" ht="16">
       <c r="A216" s="3" t="s">
         <v>1030</v>
       </c>
@@ -12029,7 +12044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" ht="16">
       <c r="A217" s="3" t="s">
         <v>1035</v>
       </c>
@@ -12070,7 +12085,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" ht="16">
       <c r="A218" s="3" t="s">
         <v>1037</v>
       </c>
@@ -12111,7 +12126,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" ht="16">
       <c r="A219" s="3" t="s">
         <v>1039</v>
       </c>
@@ -12141,7 +12156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" ht="16">
       <c r="A220" s="3" t="s">
         <v>1043</v>
       </c>
@@ -12176,7 +12191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" ht="16">
       <c r="A221" s="3" t="s">
         <v>1047</v>
       </c>
@@ -12211,7 +12226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" ht="16">
       <c r="A222" s="3" t="s">
         <v>1054</v>
       </c>
@@ -12244,7 +12259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" ht="16">
       <c r="A223" s="3" t="s">
         <v>1061</v>
       </c>
@@ -12277,7 +12292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" ht="16">
       <c r="A224" s="3" t="s">
         <v>1067</v>
       </c>
@@ -12307,7 +12322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" ht="16">
       <c r="A225" s="3" t="s">
         <v>1073</v>
       </c>
@@ -12337,7 +12352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" ht="16">
       <c r="A226" s="3" t="s">
         <v>1079</v>
       </c>
@@ -12365,7 +12380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" ht="16">
       <c r="A227" s="3" t="s">
         <v>1085</v>
       </c>
@@ -12393,7 +12408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" ht="16">
       <c r="A228" s="3" t="s">
         <v>1091</v>
       </c>
@@ -12421,7 +12436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" ht="16">
       <c r="A229" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12453,7 +12468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" ht="16">
       <c r="A230" s="3" t="s">
         <v>1105</v>
       </c>
@@ -12486,7 +12501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" ht="16">
       <c r="A231" s="3" t="s">
         <v>1112</v>
       </c>
@@ -12517,7 +12532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" ht="16">
       <c r="A232" s="3" t="s">
         <v>1117</v>
       </c>
@@ -12552,7 +12567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" ht="16">
       <c r="A233" s="3" t="s">
         <v>1124</v>
       </c>
@@ -12582,3837 +12597,3837 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" ht="16">
       <c r="A234" s="3"/>
       <c r="D234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" ht="16">
       <c r="A235" s="3"/>
       <c r="D235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" ht="16">
       <c r="A236" s="3"/>
       <c r="D236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" ht="16">
       <c r="A237" s="3"/>
       <c r="D237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" ht="16">
       <c r="A238" s="3"/>
       <c r="D238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" ht="16">
       <c r="A239" s="3"/>
       <c r="D239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" ht="16">
       <c r="A240" s="3"/>
       <c r="D240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="16">
       <c r="A241" s="3"/>
       <c r="D241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="16">
       <c r="A242" s="3"/>
       <c r="D242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="16">
       <c r="A243" s="3"/>
       <c r="D243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="16">
       <c r="A244" s="3"/>
       <c r="D244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="16">
       <c r="A245" s="3"/>
       <c r="D245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="16">
       <c r="A246" s="3"/>
       <c r="D246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="16">
       <c r="A247" s="3"/>
       <c r="D247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="16">
       <c r="A248" s="3"/>
       <c r="D248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="16">
       <c r="A249" s="3"/>
       <c r="D249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="16">
       <c r="A250" s="3"/>
       <c r="D250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="16">
       <c r="A251" s="3"/>
       <c r="D251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="16">
       <c r="A252" s="3"/>
       <c r="D252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="16">
       <c r="A253" s="3"/>
       <c r="D253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="16">
       <c r="A254" s="3"/>
       <c r="D254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="16">
       <c r="A255" s="3"/>
       <c r="D255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="16">
       <c r="A256" s="3"/>
       <c r="D256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="16">
       <c r="A257" s="3"/>
       <c r="D257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="16">
       <c r="A258" s="3"/>
       <c r="D258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="16">
       <c r="A259" s="3"/>
       <c r="D259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="16">
       <c r="A260" s="3"/>
       <c r="D260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="16">
       <c r="A261" s="3"/>
       <c r="D261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="16">
       <c r="A262" s="3"/>
       <c r="D262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="16">
       <c r="A263" s="3"/>
       <c r="D263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="16">
       <c r="A264" s="3"/>
       <c r="D264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="16">
       <c r="A265" s="3"/>
       <c r="D265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="16">
       <c r="A266" s="3"/>
       <c r="D266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="16">
       <c r="A267" s="3"/>
       <c r="D267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="16">
       <c r="A268" s="3"/>
       <c r="D268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="16">
       <c r="A269" s="3"/>
       <c r="D269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="16">
       <c r="A270" s="3"/>
       <c r="D270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="16">
       <c r="A271" s="3"/>
       <c r="D271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="16">
       <c r="A272" s="3"/>
       <c r="D272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="16">
       <c r="A273" s="3"/>
       <c r="D273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="16">
       <c r="A274" s="3"/>
       <c r="D274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="16">
       <c r="A275" s="3"/>
       <c r="D275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="16">
       <c r="A276" s="3"/>
       <c r="D276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="16">
       <c r="A277" s="3"/>
       <c r="D277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="16">
       <c r="A278" s="3"/>
       <c r="D278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="16">
       <c r="A279" s="3"/>
       <c r="D279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="16">
       <c r="A280" s="3"/>
       <c r="D280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="16">
       <c r="A281" s="3"/>
       <c r="D281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="16">
       <c r="A282" s="3"/>
       <c r="D282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="16">
       <c r="A283" s="3"/>
       <c r="D283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="16">
       <c r="A284" s="3"/>
       <c r="D284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="16">
       <c r="A285" s="3"/>
       <c r="D285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="16">
       <c r="A286" s="3"/>
       <c r="D286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="16">
       <c r="A287" s="3"/>
       <c r="D287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="16">
       <c r="A288" s="3"/>
       <c r="D288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="16">
       <c r="A289" s="3"/>
       <c r="D289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="16">
       <c r="A290" s="3"/>
       <c r="D290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="16">
       <c r="A291" s="3"/>
       <c r="D291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="16">
       <c r="A292" s="3"/>
       <c r="D292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="16">
       <c r="A293" s="3"/>
       <c r="D293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="16">
       <c r="A294" s="3"/>
       <c r="D294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="16">
       <c r="A295" s="3"/>
       <c r="D295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="16">
       <c r="A296" s="3"/>
       <c r="D296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="16">
       <c r="A297" s="3"/>
       <c r="D297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="16">
       <c r="A298" s="3"/>
       <c r="D298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="16">
       <c r="A299" s="3"/>
       <c r="D299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="16">
       <c r="A300" s="3"/>
       <c r="D300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="16">
       <c r="A301" s="3"/>
       <c r="D301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="16">
       <c r="A302" s="3"/>
       <c r="D302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="16">
       <c r="A303" s="3"/>
       <c r="D303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="16">
       <c r="A304" s="3"/>
       <c r="D304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="16">
       <c r="A305" s="3"/>
       <c r="D305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="16">
       <c r="A306" s="3"/>
       <c r="D306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="16">
       <c r="A307" s="3"/>
       <c r="D307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="16">
       <c r="A308" s="3"/>
       <c r="D308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="16">
       <c r="A309" s="3"/>
       <c r="D309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="16">
       <c r="A310" s="3"/>
       <c r="D310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="16">
       <c r="A311" s="3"/>
       <c r="D311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="16">
       <c r="A312" s="3"/>
       <c r="D312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="16">
       <c r="A313" s="3"/>
       <c r="D313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="16">
       <c r="A314" s="3"/>
       <c r="D314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="16">
       <c r="A315" s="3"/>
       <c r="D315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="16">
       <c r="A316" s="3"/>
       <c r="D316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="16">
       <c r="A317" s="3"/>
       <c r="D317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="16">
       <c r="A318" s="3"/>
       <c r="D318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="16">
       <c r="A319" s="3"/>
       <c r="D319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="16">
       <c r="A320" s="3"/>
       <c r="D320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="16">
       <c r="A321" s="3"/>
       <c r="D321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="16">
       <c r="A322" s="3"/>
       <c r="D322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="16">
       <c r="A323" s="3"/>
       <c r="D323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="16">
       <c r="A324" s="3"/>
       <c r="D324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="16">
       <c r="A325" s="3"/>
       <c r="D325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="16">
       <c r="A326" s="3"/>
       <c r="D326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="16">
       <c r="A327" s="3"/>
       <c r="D327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="16">
       <c r="A328" s="3"/>
       <c r="D328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="16">
       <c r="A329" s="3"/>
       <c r="D329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="16">
       <c r="A330" s="3"/>
       <c r="D330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="16">
       <c r="A331" s="3"/>
       <c r="D331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="16">
       <c r="A332" s="3"/>
       <c r="D332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="16">
       <c r="A333" s="3"/>
       <c r="D333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="16">
       <c r="A334" s="3"/>
       <c r="D334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="16">
       <c r="A335" s="3"/>
       <c r="D335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="16">
       <c r="A336" s="3"/>
       <c r="D336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="16">
       <c r="A337" s="3"/>
       <c r="D337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="16">
       <c r="A338" s="3"/>
       <c r="D338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="16">
       <c r="A339" s="3"/>
       <c r="D339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="16">
       <c r="A340" s="3"/>
       <c r="D340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="16">
       <c r="A341" s="3"/>
       <c r="D341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="16">
       <c r="A342" s="3"/>
       <c r="D342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="16">
       <c r="A343" s="3"/>
       <c r="D343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="16">
       <c r="A344" s="3"/>
       <c r="D344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="16">
       <c r="A345" s="3"/>
       <c r="D345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="16">
       <c r="A346" s="3"/>
       <c r="D346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="16">
       <c r="A347" s="3"/>
       <c r="D347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="16">
       <c r="A348" s="3"/>
       <c r="D348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="16">
       <c r="A349" s="3"/>
       <c r="D349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="16">
       <c r="A350" s="3"/>
       <c r="D350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="16">
       <c r="A351" s="3"/>
       <c r="D351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="16">
       <c r="A352" s="3"/>
       <c r="D352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="16">
       <c r="A353" s="3"/>
       <c r="D353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="16">
       <c r="A354" s="3"/>
       <c r="D354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="16">
       <c r="A355" s="3"/>
       <c r="D355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="16">
       <c r="A356" s="3"/>
       <c r="D356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="16">
       <c r="A357" s="3"/>
       <c r="D357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="16">
       <c r="A358" s="3"/>
       <c r="D358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="16">
       <c r="A359" s="3"/>
       <c r="D359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="16">
       <c r="A360" s="3"/>
       <c r="D360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="16">
       <c r="A361" s="3"/>
       <c r="D361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="16">
       <c r="A362" s="3"/>
       <c r="D362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="16">
       <c r="A363" s="3"/>
       <c r="D363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="16">
       <c r="A364" s="3"/>
       <c r="D364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="16">
       <c r="A365" s="3"/>
       <c r="D365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="16">
       <c r="A366" s="3"/>
       <c r="D366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="16">
       <c r="A367" s="3"/>
       <c r="D367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="16">
       <c r="A368" s="3"/>
       <c r="D368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="16">
       <c r="A369" s="3"/>
       <c r="D369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="16">
       <c r="A370" s="3"/>
       <c r="D370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="16">
       <c r="A371" s="3"/>
       <c r="D371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="16">
       <c r="A372" s="3"/>
       <c r="D372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="16">
       <c r="A373" s="3"/>
       <c r="D373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="16">
       <c r="A374" s="3"/>
       <c r="D374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="16">
       <c r="A375" s="3"/>
       <c r="D375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="16">
       <c r="A376" s="3"/>
       <c r="D376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="16">
       <c r="A377" s="3"/>
       <c r="D377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="16">
       <c r="A378" s="3"/>
       <c r="D378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="16">
       <c r="A379" s="3"/>
       <c r="D379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="16">
       <c r="A380" s="3"/>
       <c r="D380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="16">
       <c r="A381" s="3"/>
       <c r="D381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="16">
       <c r="A382" s="3"/>
       <c r="D382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="16">
       <c r="A383" s="3"/>
       <c r="D383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="16">
       <c r="A384" s="3"/>
       <c r="D384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="16">
       <c r="A385" s="3"/>
       <c r="D385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="16">
       <c r="A386" s="3"/>
       <c r="D386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="16">
       <c r="A387" s="3"/>
       <c r="D387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="16">
       <c r="A388" s="3"/>
       <c r="D388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="16">
       <c r="A389" s="3"/>
       <c r="D389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="16">
       <c r="A390" s="3"/>
       <c r="D390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="16">
       <c r="A391" s="3"/>
       <c r="D391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="16">
       <c r="A392" s="3"/>
       <c r="D392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="16">
       <c r="A393" s="3"/>
       <c r="D393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="16">
       <c r="A394" s="3"/>
       <c r="D394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="16">
       <c r="A395" s="3"/>
       <c r="D395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="16">
       <c r="A396" s="3"/>
       <c r="D396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="16">
       <c r="A397" s="3"/>
       <c r="D397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="16">
       <c r="A398" s="3"/>
       <c r="D398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="16">
       <c r="A399" s="3"/>
       <c r="D399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="16">
       <c r="A400" s="3"/>
       <c r="D400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="16">
       <c r="A401" s="3"/>
       <c r="D401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="16">
       <c r="A402" s="3"/>
       <c r="D402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="16">
       <c r="A403" s="3"/>
       <c r="D403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="16">
       <c r="A404" s="3"/>
       <c r="D404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="16">
       <c r="A405" s="3"/>
       <c r="D405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="16">
       <c r="A406" s="3"/>
       <c r="D406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="16">
       <c r="A407" s="3"/>
       <c r="D407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="16">
       <c r="A408" s="3"/>
       <c r="D408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="16">
       <c r="A409" s="3"/>
       <c r="D409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="16">
       <c r="A410" s="3"/>
       <c r="D410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="16">
       <c r="A411" s="3"/>
       <c r="D411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="16">
       <c r="A412" s="3"/>
       <c r="D412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="16">
       <c r="A413" s="3"/>
       <c r="D413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="16">
       <c r="A414" s="3"/>
       <c r="D414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="16">
       <c r="A415" s="3"/>
       <c r="D415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="16">
       <c r="A416" s="3"/>
       <c r="D416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="16">
       <c r="A417" s="3"/>
       <c r="D417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="16">
       <c r="A418" s="3"/>
       <c r="D418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="16">
       <c r="A419" s="3"/>
       <c r="D419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="16">
       <c r="A420" s="3"/>
       <c r="D420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="16">
       <c r="A421" s="3"/>
       <c r="D421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="16">
       <c r="A422" s="3"/>
       <c r="D422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="16">
       <c r="A423" s="3"/>
       <c r="D423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="16">
       <c r="A424" s="3"/>
       <c r="D424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="16">
       <c r="A425" s="3"/>
       <c r="D425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="16">
       <c r="A426" s="3"/>
       <c r="D426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="16">
       <c r="A427" s="3"/>
       <c r="D427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="16">
       <c r="A428" s="3"/>
       <c r="D428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="16">
       <c r="A429" s="3"/>
       <c r="D429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="16">
       <c r="A430" s="3"/>
       <c r="D430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="16">
       <c r="A431" s="3"/>
       <c r="D431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="16">
       <c r="A432" s="3"/>
       <c r="D432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="16">
       <c r="A433" s="3"/>
       <c r="D433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="16">
       <c r="A434" s="3"/>
       <c r="D434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="16">
       <c r="A435" s="3"/>
       <c r="D435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="16">
       <c r="A436" s="3"/>
       <c r="D436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="16">
       <c r="A437" s="3"/>
       <c r="D437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="16">
       <c r="A438" s="3"/>
       <c r="D438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="16">
       <c r="A439" s="3"/>
       <c r="D439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="16">
       <c r="A440" s="3"/>
       <c r="D440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="16">
       <c r="A441" s="3"/>
       <c r="D441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="16">
       <c r="A442" s="3"/>
       <c r="D442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="16">
       <c r="A443" s="3"/>
       <c r="D443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="16">
       <c r="A444" s="3"/>
       <c r="D444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="16">
       <c r="A445" s="3"/>
       <c r="D445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="16">
       <c r="A446" s="3"/>
       <c r="D446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="16">
       <c r="A447" s="3"/>
       <c r="D447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="16">
       <c r="A448" s="3"/>
       <c r="D448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="16">
       <c r="A449" s="3"/>
       <c r="D449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="16">
       <c r="A450" s="3"/>
       <c r="D450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="16">
       <c r="A451" s="3"/>
       <c r="D451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="16">
       <c r="A452" s="3"/>
       <c r="D452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="16">
       <c r="A453" s="3"/>
       <c r="D453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="16">
       <c r="A454" s="3"/>
       <c r="D454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="16">
       <c r="A455" s="3"/>
       <c r="D455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="16">
       <c r="A456" s="3"/>
       <c r="D456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="16">
       <c r="A457" s="3"/>
       <c r="D457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="16">
       <c r="A458" s="3"/>
       <c r="D458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="16">
       <c r="A459" s="3"/>
       <c r="D459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="16">
       <c r="A460" s="3"/>
       <c r="D460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="16">
       <c r="A461" s="3"/>
       <c r="D461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="16">
       <c r="A462" s="3"/>
       <c r="D462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="16">
       <c r="A463" s="3"/>
       <c r="D463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="16">
       <c r="A464" s="3"/>
       <c r="D464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="16">
       <c r="A465" s="3"/>
       <c r="D465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="16">
       <c r="A466" s="3"/>
       <c r="D466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="16">
       <c r="A467" s="3"/>
       <c r="D467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="16">
       <c r="A468" s="3"/>
       <c r="D468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="16">
       <c r="A469" s="3"/>
       <c r="D469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="16">
       <c r="A470" s="3"/>
       <c r="D470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="16">
       <c r="A471" s="3"/>
       <c r="D471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="16">
       <c r="A472" s="3"/>
       <c r="D472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="16">
       <c r="A473" s="3"/>
       <c r="D473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="16">
       <c r="A474" s="3"/>
       <c r="D474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="16">
       <c r="A475" s="3"/>
       <c r="D475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="16">
       <c r="A476" s="3"/>
       <c r="D476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="16">
       <c r="A477" s="3"/>
       <c r="D477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="16">
       <c r="A478" s="3"/>
       <c r="D478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="16">
       <c r="A479" s="3"/>
       <c r="D479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="16">
       <c r="A480" s="3"/>
       <c r="D480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="16">
       <c r="A481" s="3"/>
       <c r="D481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="16">
       <c r="A482" s="3"/>
       <c r="D482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="16">
       <c r="A483" s="3"/>
       <c r="D483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="16">
       <c r="A484" s="3"/>
       <c r="D484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="16">
       <c r="A485" s="3"/>
       <c r="D485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="16">
       <c r="A486" s="3"/>
       <c r="D486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="16">
       <c r="A487" s="3"/>
       <c r="D487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="16">
       <c r="A488" s="3"/>
       <c r="D488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="16">
       <c r="A489" s="3"/>
       <c r="D489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="16">
       <c r="A490" s="3"/>
       <c r="D490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="16">
       <c r="A491" s="3"/>
       <c r="D491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="16">
       <c r="A492" s="3"/>
       <c r="D492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="16">
       <c r="A493" s="3"/>
       <c r="D493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="16">
       <c r="A494" s="3"/>
       <c r="D494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="16">
       <c r="A495" s="3"/>
       <c r="D495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="16">
       <c r="A496" s="3"/>
       <c r="D496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="16">
       <c r="A497" s="3"/>
       <c r="D497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="16">
       <c r="A498" s="3"/>
       <c r="D498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="16">
       <c r="A499" s="3"/>
       <c r="D499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="16">
       <c r="A500" s="3"/>
       <c r="D500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="16">
       <c r="A501" s="3"/>
       <c r="D501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="16">
       <c r="A502" s="3"/>
       <c r="D502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="16">
       <c r="A503" s="3"/>
       <c r="D503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="16">
       <c r="A504" s="3"/>
       <c r="D504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="16">
       <c r="A505" s="3"/>
       <c r="D505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="16">
       <c r="A506" s="3"/>
       <c r="D506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="16">
       <c r="A507" s="3"/>
       <c r="D507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="16">
       <c r="A508" s="3"/>
       <c r="D508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="16">
       <c r="A509" s="3"/>
       <c r="D509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="16">
       <c r="A510" s="3"/>
       <c r="D510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="16">
       <c r="A511" s="3"/>
       <c r="D511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="16">
       <c r="A512" s="3"/>
       <c r="D512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="16">
       <c r="A513" s="3"/>
       <c r="D513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="16">
       <c r="A514" s="3"/>
       <c r="D514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="16">
       <c r="A515" s="3"/>
       <c r="D515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="16">
       <c r="A516" s="3"/>
       <c r="D516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="16">
       <c r="A517" s="3"/>
       <c r="D517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="16">
       <c r="A518" s="3"/>
       <c r="D518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="16">
       <c r="A519" s="3"/>
       <c r="D519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="16">
       <c r="A520" s="3"/>
       <c r="D520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="16">
       <c r="A521" s="3"/>
       <c r="D521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="16">
       <c r="A522" s="3"/>
       <c r="D522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="16">
       <c r="A523" s="3"/>
       <c r="D523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="16">
       <c r="A524" s="3"/>
       <c r="D524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="16">
       <c r="A525" s="3"/>
       <c r="D525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="16">
       <c r="A526" s="3"/>
       <c r="D526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="16">
       <c r="A527" s="3"/>
       <c r="D527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="16">
       <c r="A528" s="3"/>
       <c r="D528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="16">
       <c r="A529" s="3"/>
       <c r="D529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="16">
       <c r="A530" s="3"/>
       <c r="D530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="16">
       <c r="A531" s="3"/>
       <c r="D531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="16">
       <c r="A532" s="3"/>
       <c r="D532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="16">
       <c r="A533" s="3"/>
       <c r="D533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="16">
       <c r="A534" s="3"/>
       <c r="D534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="16">
       <c r="A535" s="3"/>
       <c r="D535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="16">
       <c r="A536" s="3"/>
       <c r="D536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="16">
       <c r="A537" s="3"/>
       <c r="D537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="16">
       <c r="A538" s="3"/>
       <c r="D538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="16">
       <c r="A539" s="3"/>
       <c r="D539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="16">
       <c r="A540" s="3"/>
       <c r="D540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="16">
       <c r="A541" s="3"/>
       <c r="D541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="16">
       <c r="A542" s="3"/>
       <c r="D542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="16">
       <c r="A543" s="3"/>
       <c r="D543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="16">
       <c r="A544" s="3"/>
       <c r="D544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="16">
       <c r="A545" s="3"/>
       <c r="D545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="16">
       <c r="A546" s="3"/>
       <c r="D546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="16">
       <c r="A547" s="3"/>
       <c r="D547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="16">
       <c r="A548" s="3"/>
       <c r="D548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" ht="16">
       <c r="A549" s="3"/>
       <c r="D549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" ht="16">
       <c r="A550" s="3"/>
       <c r="D550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" ht="16">
       <c r="A551" s="3"/>
       <c r="D551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="16">
       <c r="A552" s="3"/>
       <c r="D552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="16">
       <c r="A553" s="3"/>
       <c r="D553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="16">
       <c r="A554" s="3"/>
       <c r="D554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="16">
       <c r="A555" s="3"/>
       <c r="D555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="16">
       <c r="A556" s="3"/>
       <c r="D556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="16">
       <c r="A557" s="3"/>
       <c r="D557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="16">
       <c r="A558" s="3"/>
       <c r="D558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="16">
       <c r="A559" s="3"/>
       <c r="D559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="16">
       <c r="A560" s="3"/>
       <c r="D560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" ht="16">
       <c r="A561" s="3"/>
       <c r="D561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" ht="16">
       <c r="A562" s="3"/>
       <c r="D562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="16">
       <c r="A563" s="3"/>
       <c r="D563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" ht="16">
       <c r="A564" s="3"/>
       <c r="D564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" ht="16">
       <c r="A565" s="3"/>
       <c r="D565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" ht="16">
       <c r="A566" s="3"/>
       <c r="D566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" ht="16">
       <c r="A567" s="3"/>
       <c r="D567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" ht="16">
       <c r="A568" s="3"/>
       <c r="D568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" ht="16">
       <c r="A569" s="3"/>
       <c r="D569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" ht="16">
       <c r="A570" s="3"/>
       <c r="D570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" ht="16">
       <c r="A571" s="3"/>
       <c r="D571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" ht="16">
       <c r="A572" s="3"/>
       <c r="D572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" ht="16">
       <c r="A573" s="3"/>
       <c r="D573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" ht="16">
       <c r="A574" s="3"/>
       <c r="D574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" ht="16">
       <c r="A575" s="3"/>
       <c r="D575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="16">
       <c r="A576" s="3"/>
       <c r="D576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="16">
       <c r="A577" s="3"/>
       <c r="D577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="16">
       <c r="A578" s="3"/>
       <c r="D578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="16">
       <c r="A579" s="3"/>
       <c r="D579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="16">
       <c r="A580" s="3"/>
       <c r="D580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="16">
       <c r="A581" s="3"/>
       <c r="D581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="16">
       <c r="A582" s="3"/>
       <c r="D582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="16">
       <c r="A583" s="3"/>
       <c r="D583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="16">
       <c r="A584" s="3"/>
       <c r="D584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="16">
       <c r="A585" s="3"/>
       <c r="D585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="16">
       <c r="A586" s="3"/>
       <c r="D586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="16">
       <c r="A587" s="3"/>
       <c r="D587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="16">
       <c r="A588" s="3"/>
       <c r="D588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="16">
       <c r="A589" s="3"/>
       <c r="D589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="16">
       <c r="A590" s="3"/>
       <c r="D590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="16">
       <c r="A591" s="3"/>
       <c r="D591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="16">
       <c r="A592" s="3"/>
       <c r="D592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="16">
       <c r="A593" s="3"/>
       <c r="D593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="16">
       <c r="A594" s="3"/>
       <c r="D594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="16">
       <c r="A595" s="3"/>
       <c r="D595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="16">
       <c r="A596" s="3"/>
       <c r="D596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="16">
       <c r="A597" s="3"/>
       <c r="D597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="16">
       <c r="A598" s="3"/>
       <c r="D598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="16">
       <c r="A599" s="3"/>
       <c r="D599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="16">
       <c r="A600" s="3"/>
       <c r="D600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="16">
       <c r="A601" s="3"/>
       <c r="D601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="16">
       <c r="A602" s="3"/>
       <c r="D602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="16">
       <c r="A603" s="3"/>
       <c r="D603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="16">
       <c r="A604" s="3"/>
       <c r="D604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="16">
       <c r="A605" s="3"/>
       <c r="D605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="16">
       <c r="A606" s="3"/>
       <c r="D606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="16">
       <c r="A607" s="3"/>
       <c r="D607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="16">
       <c r="A608" s="3"/>
       <c r="D608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="16">
       <c r="A609" s="3"/>
       <c r="D609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="16">
       <c r="A610" s="3"/>
       <c r="D610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="16">
       <c r="A611" s="3"/>
       <c r="D611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="16">
       <c r="A612" s="3"/>
       <c r="D612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="16">
       <c r="A613" s="3"/>
       <c r="D613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="16">
       <c r="A614" s="3"/>
       <c r="D614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="16">
       <c r="A615" s="3"/>
       <c r="D615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="16">
       <c r="A616" s="3"/>
       <c r="D616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="16">
       <c r="A617" s="3"/>
       <c r="D617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="16">
       <c r="A618" s="3"/>
       <c r="D618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="16">
       <c r="A619" s="3"/>
       <c r="D619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="16">
       <c r="A620" s="3"/>
       <c r="D620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="16">
       <c r="A621" s="3"/>
       <c r="D621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="16">
       <c r="A622" s="3"/>
       <c r="D622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="16">
       <c r="A623" s="3"/>
       <c r="D623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="16">
       <c r="A624" s="3"/>
       <c r="D624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="16">
       <c r="A625" s="3"/>
       <c r="D625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="16">
       <c r="A626" s="3"/>
       <c r="D626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="16">
       <c r="A627" s="3"/>
       <c r="D627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="16">
       <c r="A628" s="3"/>
       <c r="D628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="16">
       <c r="A629" s="3"/>
       <c r="D629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="16">
       <c r="A630" s="3"/>
       <c r="D630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="16">
       <c r="A631" s="3"/>
       <c r="D631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="16">
       <c r="A632" s="3"/>
       <c r="D632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="16">
       <c r="A633" s="3"/>
       <c r="D633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="16">
       <c r="A634" s="3"/>
       <c r="D634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="16">
       <c r="A635" s="3"/>
       <c r="D635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="16">
       <c r="A636" s="3"/>
       <c r="D636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="16">
       <c r="A637" s="3"/>
       <c r="D637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="16">
       <c r="A638" s="3"/>
       <c r="D638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="16">
       <c r="A639" s="3"/>
       <c r="D639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="16">
       <c r="A640" s="3"/>
       <c r="D640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="16">
       <c r="A641" s="3"/>
       <c r="D641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="16">
       <c r="A642" s="3"/>
       <c r="D642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="16">
       <c r="A643" s="3"/>
       <c r="D643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="16">
       <c r="A644" s="3"/>
       <c r="D644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="16">
       <c r="A645" s="3"/>
       <c r="D645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="16">
       <c r="A646" s="3"/>
       <c r="D646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="16">
       <c r="A647" s="3"/>
       <c r="D647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="16">
       <c r="A648" s="3"/>
       <c r="D648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="16">
       <c r="A649" s="3"/>
       <c r="D649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="16">
       <c r="A650" s="3"/>
       <c r="D650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" ht="16">
       <c r="A651" s="3"/>
       <c r="D651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" ht="16">
       <c r="A652" s="3"/>
       <c r="D652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" ht="16">
       <c r="A653" s="3"/>
       <c r="D653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" ht="16">
       <c r="A654" s="3"/>
       <c r="D654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" ht="16">
       <c r="A655" s="3"/>
       <c r="D655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" ht="16">
       <c r="A656" s="3"/>
       <c r="D656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" ht="16">
       <c r="A657" s="3"/>
       <c r="D657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" ht="16">
       <c r="A658" s="3"/>
       <c r="D658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" ht="16">
       <c r="A659" s="3"/>
       <c r="D659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" ht="16">
       <c r="A660" s="3"/>
       <c r="D660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" ht="16">
       <c r="A661" s="3"/>
       <c r="D661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" ht="16">
       <c r="A662" s="3"/>
       <c r="D662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" ht="16">
       <c r="A663" s="3"/>
       <c r="D663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" ht="16">
       <c r="A664" s="3"/>
       <c r="D664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" ht="16">
       <c r="A665" s="3"/>
       <c r="D665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" ht="16">
       <c r="A666" s="3"/>
       <c r="D666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" ht="16">
       <c r="A667" s="3"/>
       <c r="D667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" ht="16">
       <c r="A668" s="3"/>
       <c r="D668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" ht="16">
       <c r="A669" s="3"/>
       <c r="D669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" ht="16">
       <c r="A670" s="3"/>
       <c r="D670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" ht="16">
       <c r="A671" s="3"/>
       <c r="D671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" ht="16">
       <c r="A672" s="3"/>
       <c r="D672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" ht="16">
       <c r="A673" s="3"/>
       <c r="D673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" ht="16">
       <c r="A674" s="3"/>
       <c r="D674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" ht="16">
       <c r="A675" s="3"/>
       <c r="D675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" ht="16">
       <c r="A676" s="3"/>
       <c r="D676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" ht="16">
       <c r="A677" s="3"/>
       <c r="D677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" ht="16">
       <c r="A678" s="3"/>
       <c r="D678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" ht="16">
       <c r="A679" s="3"/>
       <c r="D679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" ht="16">
       <c r="A680" s="3"/>
       <c r="D680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" ht="16">
       <c r="A681" s="3"/>
       <c r="D681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" ht="16">
       <c r="A682" s="3"/>
       <c r="D682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" ht="16">
       <c r="A683" s="3"/>
       <c r="D683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" ht="16">
       <c r="A684" s="3"/>
       <c r="D684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" ht="16">
       <c r="A685" s="3"/>
       <c r="D685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" ht="16">
       <c r="A686" s="3"/>
       <c r="D686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" ht="16">
       <c r="A687" s="3"/>
       <c r="D687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" ht="16">
       <c r="A688" s="3"/>
       <c r="D688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" ht="16">
       <c r="A689" s="3"/>
       <c r="D689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" ht="16">
       <c r="A690" s="3"/>
       <c r="D690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" ht="16">
       <c r="A691" s="3"/>
       <c r="D691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" ht="16">
       <c r="A692" s="3"/>
       <c r="D692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" ht="16">
       <c r="A693" s="3"/>
       <c r="D693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" ht="16">
       <c r="A694" s="3"/>
       <c r="D694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" ht="16">
       <c r="A695" s="3"/>
       <c r="D695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" ht="16">
       <c r="A696" s="3"/>
       <c r="D696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" ht="16">
       <c r="A697" s="3"/>
       <c r="D697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" ht="16">
       <c r="A698" s="3"/>
       <c r="D698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" ht="16">
       <c r="A699" s="3"/>
       <c r="D699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" ht="16">
       <c r="A700" s="3"/>
       <c r="D700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" ht="16">
       <c r="A701" s="3"/>
       <c r="D701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" ht="16">
       <c r="A702" s="3"/>
       <c r="D702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" ht="16">
       <c r="A703" s="3"/>
       <c r="D703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" ht="16">
       <c r="A704" s="3"/>
       <c r="D704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" ht="16">
       <c r="A705" s="3"/>
       <c r="D705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" ht="16">
       <c r="A706" s="3"/>
       <c r="D706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" ht="16">
       <c r="A707" s="3"/>
       <c r="D707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" ht="16">
       <c r="A708" s="3"/>
       <c r="D708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" ht="16">
       <c r="A709" s="3"/>
       <c r="D709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" ht="16">
       <c r="A710" s="3"/>
       <c r="D710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" ht="16">
       <c r="A711" s="3"/>
       <c r="D711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" ht="16">
       <c r="A712" s="3"/>
       <c r="D712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" ht="16">
       <c r="A713" s="3"/>
       <c r="D713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" ht="16">
       <c r="A714" s="3"/>
       <c r="D714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" ht="16">
       <c r="A715" s="3"/>
       <c r="D715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" ht="16">
       <c r="A716" s="3"/>
       <c r="D716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" ht="16">
       <c r="A717" s="3"/>
       <c r="D717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" ht="16">
       <c r="A718" s="3"/>
       <c r="D718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" ht="16">
       <c r="A719" s="3"/>
       <c r="D719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" ht="16">
       <c r="A720" s="3"/>
       <c r="D720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" ht="16">
       <c r="A721" s="3"/>
       <c r="D721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" ht="16">
       <c r="A722" s="3"/>
       <c r="D722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" ht="16">
       <c r="A723" s="3"/>
       <c r="D723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" ht="16">
       <c r="A724" s="3"/>
       <c r="D724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" ht="16">
       <c r="A725" s="3"/>
       <c r="D725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" ht="16">
       <c r="A726" s="3"/>
       <c r="D726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" ht="16">
       <c r="A727" s="3"/>
       <c r="D727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" ht="16">
       <c r="A728" s="3"/>
       <c r="D728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" ht="16">
       <c r="A729" s="3"/>
       <c r="D729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" ht="16">
       <c r="A730" s="3"/>
       <c r="D730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" ht="16">
       <c r="A731" s="3"/>
       <c r="D731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" ht="16">
       <c r="A732" s="3"/>
       <c r="D732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" ht="16">
       <c r="A733" s="3"/>
       <c r="D733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" ht="16">
       <c r="A734" s="3"/>
       <c r="D734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" ht="16">
       <c r="A735" s="3"/>
       <c r="D735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="16">
       <c r="A736" s="3"/>
       <c r="D736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" ht="16">
       <c r="A737" s="3"/>
       <c r="D737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" ht="16">
       <c r="A738" s="3"/>
       <c r="D738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" ht="16">
       <c r="A739" s="3"/>
       <c r="D739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" ht="16">
       <c r="A740" s="3"/>
       <c r="D740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" ht="16">
       <c r="A741" s="3"/>
       <c r="D741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" ht="16">
       <c r="A742" s="3"/>
       <c r="D742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" ht="16">
       <c r="A743" s="3"/>
       <c r="D743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="16">
       <c r="A744" s="3"/>
       <c r="D744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" ht="16">
       <c r="A745" s="3"/>
       <c r="D745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" ht="16">
       <c r="A746" s="3"/>
       <c r="D746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" ht="16">
       <c r="A747" s="3"/>
       <c r="D747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" ht="16">
       <c r="A748" s="3"/>
       <c r="D748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" ht="16">
       <c r="A749" s="3"/>
       <c r="D749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" ht="16">
       <c r="A750" s="3"/>
       <c r="D750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" ht="16">
       <c r="A751" s="3"/>
       <c r="D751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="16">
       <c r="A752" s="3"/>
       <c r="D752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" ht="16">
       <c r="A753" s="3"/>
       <c r="D753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" ht="16">
       <c r="A754" s="3"/>
       <c r="D754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="16">
       <c r="A755" s="3"/>
       <c r="D755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" ht="16">
       <c r="A756" s="3"/>
       <c r="D756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" ht="16">
       <c r="A757" s="3"/>
       <c r="D757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" ht="16">
       <c r="A758" s="3"/>
       <c r="D758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="16">
       <c r="A759" s="3"/>
       <c r="D759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" ht="16">
       <c r="A760" s="3"/>
       <c r="D760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" ht="16">
       <c r="A761" s="3"/>
       <c r="D761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" ht="16">
       <c r="A762" s="3"/>
       <c r="D762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" ht="16">
       <c r="A763" s="3"/>
       <c r="D763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" ht="16">
       <c r="A764" s="3"/>
       <c r="D764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" ht="16">
       <c r="A765" s="3"/>
       <c r="D765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" ht="16">
       <c r="A766" s="3"/>
       <c r="D766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" ht="16">
       <c r="A767" s="3"/>
       <c r="D767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" ht="16">
       <c r="A768" s="3"/>
       <c r="D768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" ht="16">
       <c r="A769" s="3"/>
       <c r="D769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" ht="16">
       <c r="A770" s="3"/>
       <c r="D770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" ht="16">
       <c r="A771" s="3"/>
       <c r="D771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" ht="16">
       <c r="A772" s="3"/>
       <c r="D772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" ht="16">
       <c r="A773" s="3"/>
       <c r="D773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" ht="16">
       <c r="A774" s="3"/>
       <c r="D774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" ht="16">
       <c r="A775" s="3"/>
       <c r="D775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" ht="16">
       <c r="A776" s="3"/>
       <c r="D776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" ht="16">
       <c r="A777" s="3"/>
       <c r="D777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" ht="16">
       <c r="A778" s="3"/>
       <c r="D778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" ht="16">
       <c r="A779" s="3"/>
       <c r="D779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" ht="16">
       <c r="A780" s="3"/>
       <c r="D780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" ht="16">
       <c r="A781" s="3"/>
       <c r="D781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" ht="16">
       <c r="A782" s="3"/>
       <c r="D782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" ht="16">
       <c r="A783" s="3"/>
       <c r="D783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" ht="16">
       <c r="A784" s="3"/>
       <c r="D784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" ht="16">
       <c r="A785" s="3"/>
       <c r="D785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" ht="16">
       <c r="A786" s="3"/>
       <c r="D786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" ht="16">
       <c r="A787" s="3"/>
       <c r="D787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" ht="16">
       <c r="A788" s="3"/>
       <c r="D788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" ht="16">
       <c r="A789" s="3"/>
       <c r="D789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" ht="16">
       <c r="A790" s="3"/>
       <c r="D790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" ht="16">
       <c r="A791" s="3"/>
       <c r="D791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" ht="16">
       <c r="A792" s="3"/>
       <c r="D792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" ht="16">
       <c r="A793" s="3"/>
       <c r="D793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" ht="16">
       <c r="A794" s="3"/>
       <c r="D794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" ht="16">
       <c r="A795" s="3"/>
       <c r="D795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" ht="16">
       <c r="A796" s="3"/>
       <c r="D796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" ht="16">
       <c r="A797" s="3"/>
       <c r="D797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" ht="16">
       <c r="A798" s="3"/>
       <c r="D798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" ht="16">
       <c r="A799" s="3"/>
       <c r="D799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" ht="16">
       <c r="A800" s="3"/>
       <c r="D800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" ht="16">
       <c r="A801" s="3"/>
       <c r="D801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" ht="16">
       <c r="A802" s="3"/>
       <c r="D802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" ht="16">
       <c r="A803" s="3"/>
       <c r="D803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" ht="16">
       <c r="A804" s="3"/>
       <c r="D804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" ht="16">
       <c r="A805" s="3"/>
       <c r="D805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" ht="16">
       <c r="A806" s="3"/>
       <c r="D806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" ht="16">
       <c r="A807" s="3"/>
       <c r="D807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" ht="16">
       <c r="A808" s="3"/>
       <c r="D808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" ht="16">
       <c r="A809" s="3"/>
       <c r="D809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" ht="16">
       <c r="A810" s="3"/>
       <c r="D810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" ht="16">
       <c r="A811" s="3"/>
       <c r="D811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" ht="16">
       <c r="A812" s="3"/>
       <c r="D812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" ht="16">
       <c r="A813" s="3"/>
       <c r="D813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" ht="16">
       <c r="A814" s="3"/>
       <c r="D814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" ht="16">
       <c r="A815" s="3"/>
       <c r="D815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" ht="16">
       <c r="A816" s="3"/>
       <c r="D816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="16">
       <c r="A817" s="3"/>
       <c r="D817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="16">
       <c r="A818" s="3"/>
       <c r="D818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="16">
       <c r="A819" s="3"/>
       <c r="D819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="16">
       <c r="A820" s="3"/>
       <c r="D820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="16">
       <c r="A821" s="3"/>
       <c r="D821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="16">
       <c r="A822" s="3"/>
       <c r="D822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" ht="16">
       <c r="A823" s="3"/>
       <c r="D823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="16">
       <c r="A824" s="3"/>
       <c r="D824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" ht="16">
       <c r="A825" s="3"/>
       <c r="D825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" ht="16">
       <c r="A826" s="3"/>
       <c r="D826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="16">
       <c r="A827" s="3"/>
       <c r="D827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="16">
       <c r="A828" s="3"/>
       <c r="D828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="16">
       <c r="A829" s="3"/>
       <c r="D829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="16">
       <c r="A830" s="3"/>
       <c r="D830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="16">
       <c r="A831" s="3"/>
       <c r="D831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" ht="16">
       <c r="A832" s="3"/>
       <c r="D832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" ht="16">
       <c r="A833" s="3"/>
       <c r="D833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" ht="16">
       <c r="A834" s="3"/>
       <c r="D834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" ht="16">
       <c r="A835" s="3"/>
       <c r="D835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" ht="16">
       <c r="A836" s="3"/>
       <c r="D836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" ht="16">
       <c r="A837" s="3"/>
       <c r="D837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" ht="16">
       <c r="A838" s="3"/>
       <c r="D838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" ht="16">
       <c r="A839" s="3"/>
       <c r="D839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" ht="16">
       <c r="A840" s="3"/>
       <c r="D840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" ht="16">
       <c r="A841" s="3"/>
       <c r="D841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" ht="16">
       <c r="A842" s="3"/>
       <c r="D842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" ht="16">
       <c r="A843" s="3"/>
       <c r="D843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" ht="16">
       <c r="A844" s="3"/>
       <c r="D844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" ht="16">
       <c r="A845" s="3"/>
       <c r="D845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" ht="16">
       <c r="A846" s="3"/>
       <c r="D846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" ht="16">
       <c r="A847" s="3"/>
       <c r="D847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" ht="16">
       <c r="A848" s="3"/>
       <c r="D848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" ht="16">
       <c r="A849" s="3"/>
       <c r="D849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" ht="16">
       <c r="A850" s="3"/>
       <c r="D850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" ht="16">
       <c r="A851" s="3"/>
       <c r="D851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" ht="16">
       <c r="A852" s="3"/>
       <c r="D852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" ht="16">
       <c r="A853" s="3"/>
       <c r="D853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" ht="16">
       <c r="A854" s="3"/>
       <c r="D854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" ht="16">
       <c r="A855" s="3"/>
       <c r="D855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" ht="16">
       <c r="A856" s="3"/>
       <c r="D856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" ht="16">
       <c r="A857" s="3"/>
       <c r="D857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" ht="16">
       <c r="A858" s="3"/>
       <c r="D858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" ht="16">
       <c r="A859" s="3"/>
       <c r="D859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" ht="16">
       <c r="A860" s="3"/>
       <c r="D860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" ht="16">
       <c r="A861" s="3"/>
       <c r="D861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" ht="16">
       <c r="A862" s="3"/>
       <c r="D862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" ht="16">
       <c r="A863" s="3"/>
       <c r="D863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" ht="16">
       <c r="A864" s="3"/>
       <c r="D864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" ht="16">
       <c r="A865" s="3"/>
       <c r="D865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" ht="16">
       <c r="A866" s="3"/>
       <c r="D866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" ht="16">
       <c r="A867" s="3"/>
       <c r="D867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" ht="16">
       <c r="A868" s="3"/>
       <c r="D868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" ht="16">
       <c r="A869" s="3"/>
       <c r="D869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" ht="16">
       <c r="A870" s="3"/>
       <c r="D870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" ht="16">
       <c r="A871" s="3"/>
       <c r="D871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" ht="16">
       <c r="A872" s="3"/>
       <c r="D872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" ht="16">
       <c r="A873" s="3"/>
       <c r="D873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" ht="16">
       <c r="A874" s="3"/>
       <c r="D874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" ht="16">
       <c r="A875" s="3"/>
       <c r="D875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" ht="16">
       <c r="A876" s="3"/>
       <c r="D876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" ht="16">
       <c r="A877" s="3"/>
       <c r="D877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" ht="16">
       <c r="A878" s="3"/>
       <c r="D878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" ht="16">
       <c r="A879" s="3"/>
       <c r="D879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" ht="16">
       <c r="A880" s="3"/>
       <c r="D880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" ht="16">
       <c r="A881" s="3"/>
       <c r="D881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" ht="16">
       <c r="A882" s="3"/>
       <c r="D882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" ht="16">
       <c r="A883" s="3"/>
       <c r="D883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" ht="16">
       <c r="A884" s="3"/>
       <c r="D884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" ht="16">
       <c r="A885" s="3"/>
       <c r="D885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" ht="16">
       <c r="A886" s="3"/>
       <c r="D886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" ht="16">
       <c r="A887" s="3"/>
       <c r="D887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" ht="16">
       <c r="A888" s="3"/>
       <c r="D888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" ht="16">
       <c r="A889" s="3"/>
       <c r="D889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" ht="16">
       <c r="A890" s="3"/>
       <c r="D890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" ht="16">
       <c r="A891" s="3"/>
       <c r="D891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" ht="16">
       <c r="A892" s="3"/>
       <c r="D892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" ht="16">
       <c r="A893" s="3"/>
       <c r="D893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" ht="16">
       <c r="A894" s="3"/>
       <c r="D894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" ht="16">
       <c r="A895" s="3"/>
       <c r="D895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" ht="16">
       <c r="A896" s="3"/>
       <c r="D896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" ht="16">
       <c r="A897" s="3"/>
       <c r="D897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" ht="16">
       <c r="A898" s="3"/>
       <c r="D898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" ht="16">
       <c r="A899" s="3"/>
       <c r="D899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" ht="16">
       <c r="A900" s="3"/>
       <c r="D900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" ht="16">
       <c r="A901" s="3"/>
       <c r="D901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" ht="16">
       <c r="A902" s="3"/>
       <c r="D902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" ht="16">
       <c r="A903" s="3"/>
       <c r="D903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" ht="16">
       <c r="A904" s="3"/>
       <c r="D904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" ht="16">
       <c r="A905" s="3"/>
       <c r="D905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" ht="16">
       <c r="A906" s="3"/>
       <c r="D906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" ht="16">
       <c r="A907" s="3"/>
       <c r="D907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" ht="16">
       <c r="A908" s="3"/>
       <c r="D908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" ht="16">
       <c r="A909" s="3"/>
       <c r="D909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" ht="16">
       <c r="A910" s="3"/>
       <c r="D910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" ht="16">
       <c r="A911" s="3"/>
       <c r="D911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" ht="16">
       <c r="A912" s="3"/>
       <c r="D912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" ht="16">
       <c r="A913" s="3"/>
       <c r="D913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" ht="16">
       <c r="A914" s="3"/>
       <c r="D914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" ht="16">
       <c r="A915" s="3"/>
       <c r="D915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" ht="16">
       <c r="A916" s="3"/>
       <c r="D916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" ht="16">
       <c r="A917" s="3"/>
       <c r="D917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" ht="16">
       <c r="A918" s="3"/>
       <c r="D918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" ht="16">
       <c r="A919" s="3"/>
       <c r="D919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" ht="16">
       <c r="A920" s="3"/>
       <c r="D920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" ht="16">
       <c r="A921" s="3"/>
       <c r="D921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" ht="16">
       <c r="A922" s="3"/>
       <c r="D922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:6" ht="16">
       <c r="A923" s="3"/>
       <c r="D923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:6" ht="16">
       <c r="A924" s="3"/>
       <c r="D924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:6" ht="16">
       <c r="A925" s="3"/>
       <c r="D925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:6" ht="16">
       <c r="A926" s="3"/>
       <c r="D926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:6" ht="16">
       <c r="A927" s="3"/>
       <c r="D927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:6" ht="16">
       <c r="A928" s="3"/>
       <c r="D928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" ht="16">
       <c r="A929" s="3"/>
       <c r="D929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" ht="16">
       <c r="A930" s="3"/>
       <c r="D930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" ht="16">
       <c r="A931" s="3"/>
       <c r="D931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" ht="16">
       <c r="A932" s="3"/>
       <c r="D932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" ht="16">
       <c r="A933" s="3"/>
       <c r="D933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" ht="16">
       <c r="A934" s="3"/>
       <c r="D934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" ht="16">
       <c r="A935" s="3"/>
       <c r="D935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" ht="16">
       <c r="A936" s="3"/>
       <c r="D936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" ht="16">
       <c r="A937" s="3"/>
       <c r="D937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" ht="16">
       <c r="A938" s="3"/>
       <c r="D938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" ht="16">
       <c r="A939" s="3"/>
       <c r="D939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" ht="16">
       <c r="A940" s="3"/>
       <c r="D940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" ht="16">
       <c r="A941" s="3"/>
       <c r="D941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" ht="16">
       <c r="A942" s="3"/>
       <c r="D942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" ht="16">
       <c r="A943" s="3"/>
       <c r="D943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" ht="16">
       <c r="A944" s="3"/>
       <c r="D944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:6" ht="16">
       <c r="A945" s="3"/>
       <c r="D945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:6" ht="16">
       <c r="A946" s="3"/>
       <c r="D946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:6" ht="16">
       <c r="A947" s="3"/>
       <c r="D947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:6" ht="16">
       <c r="A948" s="3"/>
       <c r="D948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:6" ht="16">
       <c r="A949" s="3"/>
       <c r="D949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:6" ht="16">
       <c r="A950" s="3"/>
       <c r="D950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:6" ht="16">
       <c r="A951" s="3"/>
       <c r="D951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:6" ht="16">
       <c r="A952" s="3"/>
       <c r="D952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:6" ht="16">
       <c r="A953" s="3"/>
       <c r="D953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:6" ht="16">
       <c r="A954" s="3"/>
       <c r="D954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:6" ht="16">
       <c r="A955" s="3"/>
       <c r="D955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:6" ht="16">
       <c r="A956" s="3"/>
       <c r="D956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:6" ht="16">
       <c r="A957" s="3"/>
       <c r="D957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:6" ht="16">
       <c r="A958" s="3"/>
       <c r="D958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:6" ht="16">
       <c r="A959" s="3"/>
       <c r="D959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:6" ht="16">
       <c r="A960" s="3"/>
       <c r="D960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:6" ht="16">
       <c r="A961" s="3"/>
       <c r="D961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:6" ht="16">
       <c r="A962" s="3"/>
       <c r="D962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:6" ht="16">
       <c r="A963" s="3"/>
       <c r="D963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:6" ht="16">
       <c r="A964" s="3"/>
       <c r="D964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:6" ht="16">
       <c r="A965" s="3"/>
       <c r="D965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:6" ht="16">
       <c r="A966" s="3"/>
       <c r="D966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:6" ht="16">
       <c r="A967" s="3"/>
       <c r="D967" s="3"/>
       <c r="F967" s="3"/>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:6" ht="16">
       <c r="A968" s="3"/>
       <c r="D968" s="3"/>
       <c r="F968" s="3"/>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:6" ht="16">
       <c r="A969" s="3"/>
       <c r="D969" s="3"/>
       <c r="F969" s="3"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:6" ht="16">
       <c r="A970" s="3"/>
       <c r="D970" s="3"/>
       <c r="F970" s="3"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:6" ht="16">
       <c r="A971" s="3"/>
       <c r="D971" s="3"/>
       <c r="F971" s="3"/>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:6" ht="16">
       <c r="A972" s="3"/>
       <c r="D972" s="3"/>
       <c r="F972" s="3"/>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:6" ht="16">
       <c r="A973" s="3"/>
       <c r="D973" s="3"/>
       <c r="F973" s="3"/>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:6" ht="16">
       <c r="A974" s="3"/>
       <c r="D974" s="3"/>
       <c r="F974" s="3"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:6" ht="16">
       <c r="A975" s="3"/>
       <c r="D975" s="3"/>
       <c r="F975" s="3"/>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:6" ht="16">
       <c r="A976" s="3"/>
       <c r="D976" s="3"/>
       <c r="F976" s="3"/>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:6" ht="16">
       <c r="A977" s="3"/>
       <c r="D977" s="3"/>
       <c r="F977" s="3"/>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:6" ht="16">
       <c r="A978" s="3"/>
       <c r="D978" s="3"/>
       <c r="F978" s="3"/>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:6" ht="16">
       <c r="A979" s="3"/>
       <c r="D979" s="3"/>
       <c r="F979" s="3"/>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:6" ht="16">
       <c r="A980" s="3"/>
       <c r="D980" s="3"/>
       <c r="F980" s="3"/>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:6" ht="16">
       <c r="A981" s="3"/>
       <c r="D981" s="3"/>
       <c r="F981" s="3"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:6" ht="16">
       <c r="A982" s="3"/>
       <c r="D982" s="3"/>
       <c r="F982" s="3"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:6" ht="16">
       <c r="A983" s="3"/>
       <c r="D983" s="3"/>
       <c r="F983" s="3"/>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:6" ht="16">
       <c r="A984" s="3"/>
       <c r="D984" s="3"/>
       <c r="F984" s="3"/>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:6" ht="16">
       <c r="A985" s="3"/>
       <c r="D985" s="3"/>
       <c r="F985" s="3"/>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:6" ht="16">
       <c r="A986" s="3"/>
       <c r="D986" s="3"/>
       <c r="F986" s="3"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:6" ht="16">
       <c r="A987" s="3"/>
       <c r="D987" s="3"/>
       <c r="F987" s="3"/>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:6" ht="16">
       <c r="A988" s="3"/>
       <c r="D988" s="3"/>
       <c r="F988" s="3"/>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:6" ht="16">
       <c r="A989" s="3"/>
       <c r="D989" s="3"/>
       <c r="F989" s="3"/>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:6" ht="16">
       <c r="A990" s="3"/>
       <c r="D990" s="3"/>
       <c r="F990" s="3"/>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:6" ht="16">
       <c r="A991" s="3"/>
       <c r="D991" s="3"/>
       <c r="F991" s="3"/>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:6" ht="16">
       <c r="A992" s="3"/>
       <c r="D992" s="3"/>
       <c r="F992" s="3"/>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:6" ht="16">
       <c r="A993" s="3"/>
       <c r="D993" s="3"/>
       <c r="F993" s="3"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:6" ht="16">
       <c r="A994" s="3"/>
       <c r="D994" s="3"/>
       <c r="F994" s="3"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:6" ht="16">
       <c r="A995" s="3"/>
       <c r="D995" s="3"/>
       <c r="F995" s="3"/>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:6" ht="16">
       <c r="A996" s="3"/>
       <c r="D996" s="3"/>
       <c r="F996" s="3"/>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:6" ht="16">
       <c r="A997" s="3"/>
       <c r="D997" s="3"/>
       <c r="F997" s="3"/>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:6" ht="16">
       <c r="A998" s="3"/>
       <c r="D998" s="3"/>
       <c r="F998" s="3"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:6" ht="16">
       <c r="A999" s="3"/>
       <c r="D999" s="3"/>
       <c r="F999" s="3"/>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:6" ht="16">
       <c r="A1000" s="3"/>
       <c r="D1000" s="3"/>
       <c r="F1000" s="3"/>
@@ -16422,7 +16437,7 @@
     <sortCondition ref="A4:A233"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
